--- a/頻出単語200選.xlsx
+++ b/頻出単語200選.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kasutamize/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomohiro Muto\OneDrive\デスクトップ\就活\SPI_vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064688F6-89FC-4744-9FBA-4682BE6B98CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7118A0B2-17C0-40C3-8B80-58FEA3B16A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B24678A4-D33D-4EBA-A01A-49E41BB2BB27}"/>
   </bookViews>
   <sheets>
     <sheet name="頻出語句一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="解答テクニック集(ボリュームアップver.)" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="解答テクニック集(既存の単元)" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="598">
   <si>
     <t>No</t>
   </si>
@@ -36,15 +34,15 @@
     <t>単語の意味</t>
   </si>
   <si>
-    <t>暗記チェック</t>
-  </si>
-  <si>
     <t>朦朧</t>
   </si>
   <si>
     <t>もうろう</t>
   </si>
   <si>
+    <t>ぼんやりしてはっきりしないこと。</t>
+  </si>
+  <si>
     <t>端正</t>
   </si>
   <si>
@@ -1816,269 +1814,355 @@
   </si>
   <si>
     <t>意味を広げて説明すること。</t>
-  </si>
-  <si>
-    <t>No｜単元｜解答のコツ｜時間短縮の方法</t>
-  </si>
-  <si>
-    <t>1｜計算問題｜(×)(÷)は(+)(-)より先に計算する｜小数は分数に直して計算すると速い</t>
-  </si>
-  <si>
-    <t>2｜計算の工夫｜共通の数をくくり出す｜近似値を利用し、概算を活用</t>
-  </si>
-  <si>
-    <t>3｜損益算｜利益＝売価−原価を意識｜百分率を活用し、暗算を工夫</t>
-  </si>
-  <si>
-    <t>4｜料金の割引｜定価に対する割合を計算｜元の価格を100%として考える</t>
-  </si>
-  <si>
-    <t>5｜料金の分割払い｜1回あたりの支払い額を求める｜全体を分数に直して整理</t>
-  </si>
-  <si>
-    <t>6｜料金の精算｜全体の合計を出してから配分｜端数をまとめて処理</t>
-  </si>
-  <si>
-    <t>7｜割合｜比の関係を理解し、全体を基準に考える｜基本の割合を暗記し、近い数字で素早く計算</t>
-  </si>
-  <si>
-    <t>8｜仕事算｜全体の仕事量を「1」として考える｜作業効率を比率で表し、合計を求める</t>
-  </si>
-  <si>
-    <t>9｜速さ・距離・時間｜距離＝速さ×時間の公式を活用｜単位を統一し、比例関係を使って計算</t>
-  </si>
-  <si>
-    <t>10｜時刻表｜時間の差を正確に計算｜表のパターンを事前に整理</t>
-  </si>
-  <si>
-    <t>11｜旅人算｜出発時間と速さの関係を考える｜相対速度を意識して整理</t>
-  </si>
-  <si>
-    <t>12｜通貨算｜貨幣単位ごとに整理｜端数を先に処理して計算</t>
-  </si>
-  <si>
-    <t>13｜濃度算｜濃度＝溶質÷全体の公式を使う｜比の概念を活用して整理</t>
-  </si>
-  <si>
-    <t>14｜虫食い算｜既知の数字から法則を見つける｜桁の影響を考えて予測</t>
-  </si>
-  <si>
-    <t>15｜n進法｜位の価値を理解する｜小さい数から順に変換</t>
-  </si>
-  <si>
-    <t>16｜順列｜並べる順番が重要な場合を意識｜公式を暗記してすぐ適用</t>
-  </si>
-  <si>
-    <t>17｜組み合わせ｜順番を考えない場合を識別｜基本公式を使って速算</t>
-  </si>
-  <si>
-    <t>18｜確率｜全体の数を分母、有利な数を分子にする｜簡単な確率の値を暗記し、素早く計算</t>
-  </si>
-  <si>
-    <t>19｜資料解釈｜必要なデータだけ抜き出す｜不要な情報を無視</t>
-  </si>
-  <si>
-    <t>20｜表の読み取り｜設問の求めるデータを正確に探す｜目立つポイントに着目</t>
-  </si>
-  <si>
-    <t>21｜長文の読み取り｜設問に対応する箇所を探す｜キーワードを拾いながら読む</t>
-  </si>
-  <si>
-    <t>22｜推論｜与えられた条件を順番に図にして並べる｜確実に言える箇所を見つけて正解を導く</t>
-  </si>
-  <si>
-    <t>23｜命題と論証｜仮定と結論の関係を整理｜反例を探して真偽を判定</t>
-  </si>
-  <si>
-    <t>24｜進路・方角｜方角の変化を図示する｜東西・南北を整理して計算</t>
-  </si>
-  <si>
-    <t>25｜PERT手法｜作業順序を明確にする｜クリティカルパスを意識</t>
-  </si>
-  <si>
-    <t>26｜数列｜一般項を見つけて規則性を確認｜簡単な数列は暗記</t>
-  </si>
-  <si>
-    <t>27｜集合｜ベン図を描いて関係を整理｜共通部分と排他的部分を明確に区別</t>
-  </si>
-  <si>
-    <t>28｜図形の展開図｜折りたたむ位置を想像｜展開後の形をパターン化</t>
-  </si>
-  <si>
-    <t>29｜サイコロ｜向かい合う面の関係を理解｜展開図の基本形を覚える</t>
-  </si>
-  <si>
-    <t>30｜空間図形｜投影図を活用してイメージ｜基本形を暗記して素早く判断</t>
-  </si>
-  <si>
-    <t>31｜軌道と回転｜回転の中心を考慮｜周期性を活用して計算</t>
-  </si>
-  <si>
-    <t>32｜グラフの領域｜境界線の式を求める｜簡単なグラフパターンを覚える</t>
-  </si>
-  <si>
-    <t>33｜条件と領域｜与えられた条件を数式化｜境界を明確に整理</t>
-  </si>
-  <si>
-    <t>34｜ブラックボックス｜入力と出力の法則を見つける｜試行回数を減らすためパターンを整理</t>
-  </si>
-  <si>
-    <t>35｜物の流れと比率｜流入と流出を整理｜一定の比率を意識する</t>
-  </si>
-  <si>
-    <t>36｜同意語｜似た意味の言葉を言い換える｜基本的な類義語を暗記</t>
-  </si>
-  <si>
-    <t>37｜反意語｜漢字の意味から推測する｜明らかに異なる選択肢を消去</t>
-  </si>
-  <si>
-    <t>38｜包含｜包含関係を図示｜関係を階層化して整理</t>
-  </si>
-  <si>
-    <t>39｜原料｜元になるものと製品の関係を考える｜対の関係を意識</t>
-  </si>
-  <si>
-    <t>40｜行為｜動作とその結果を考える｜動詞の意味を理解する</t>
-  </si>
-  <si>
-    <t>41｜用途｜使い道を考える｜一般的な用途を想定</t>
-  </si>
-  <si>
-    <t>42｜文法｜品詞の役割を整理｜文の構造を意識</t>
-  </si>
-  <si>
-    <t>43｜ことわざ・四字熟語｜意味と使い方をセットで覚える｜由来を考えると記憶しやすい</t>
-  </si>
-  <si>
-    <t>44｜二語関係新傾向問題｜関係性をパターン化｜語の種類ごとに整理</t>
-  </si>
-  <si>
-    <t>45｜語の意味｜文脈から意味を推測｜対義語や類義語を参考にする</t>
-  </si>
-  <si>
-    <t>46｜語彙・慣用句｜実際の使い方を意識｜文脈に注意して判断</t>
-  </si>
-  <si>
-    <t>47｜語句｜基本語の意味を理解｜使われる文脈を意識</t>
-  </si>
-  <si>
-    <t>48｜空所補充｜前後の文脈から適切な語を推測｜選択肢の中から最も自然な語を選ぶ</t>
-  </si>
-  <si>
-    <t>49｜文章整序｜接続詞や指示語を手がかりに並べる｜主語・述語の対応を確認</t>
-  </si>
-  <si>
-    <t>50｜長文読解｜段落ごとに要点を整理｜キーワードを意識して速読</t>
-  </si>
-  <si>
-    <t>1｜推論｜与えられた条件を順番に図にして並べる｜確実に言える箇所を見つけて正解を導く</t>
-  </si>
-  <si>
-    <t>2｜割合｜比の関係を理解し、全体を基準に考える｜基本の割合を暗記し、近い数字で素早く計算</t>
-  </si>
-  <si>
-    <t>3｜金額計算｜小数や税率を分数に直して計算｜概算を先に行い、大まかな答えを推測</t>
-  </si>
-  <si>
-    <t>4｜速度算｜距離＝速さ×時間の公式を活用｜単位を統一し、比例関係を使って計算</t>
-  </si>
-  <si>
-    <t>5｜表の読み取り｜設問の求めるデータを正確に探す｜不要な情報を無視し、必要な箇所に注目</t>
-  </si>
-  <si>
-    <t>6｜場合の数｜樹形図や組み合わせの公式を利用｜重複や抜けを防ぐために整理して数える</t>
-  </si>
-  <si>
-    <t>7｜確率｜全体の数を分母、有利な数を分子にする｜簡単な確率の値を暗記し、素早く計算</t>
-  </si>
-  <si>
-    <t>8｜分担計算｜全体の仕事量を「1」として考える｜作業効率を比率で表し、合計を求める</t>
-  </si>
-  <si>
-    <t>9｜集合｜ベン図を描いて関係を整理｜共通部分と排他的部分を明確に区別</t>
-  </si>
-  <si>
-    <t>10｜特殊計算｜工夫して計算を簡単にする｜同じ数をまとめたり、近い数で概算</t>
-  </si>
-  <si>
-    <t>11｜二語の関係｜語句の役割を考えて関係を見つける｜ペアの種類を覚えて瞬時に分類</t>
-  </si>
-  <si>
-    <t>12｜語句の意味｜文脈から意味を推測｜対義語や類義語を参考にする</t>
-  </si>
-  <si>
-    <t>13｜語句の用法｜例文を作って適切な使い方を判断｜誤りやすい使い方をリスト化して覚える</t>
-  </si>
-  <si>
-    <t>14｜文章整序｜接続詞や指示語を手がかりに並べる｜主語・述語の対応を確認</t>
-  </si>
-  <si>
-    <t>15｜空欄補充｜前後の文脈から適切な語を推測｜選択肢の中から最も自然な語を選ぶ</t>
-  </si>
-  <si>
-    <t>16｜同意語｜似た意味の言葉を言い換える｜基本的な類義語を暗記</t>
-  </si>
-  <si>
-    <t>17｜反意語｜漢字の意味から推測する｜明らかに異なる選択肢を消去</t>
-  </si>
-  <si>
-    <t>18｜単語の意味｜語源や成り立ちを考える｜接頭辞・接尾辞を活用して意味を推測</t>
-  </si>
-  <si>
-    <t>ぼんやりしてはっきりしないこと。</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Arial"/>
-      <family val="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2087,315 +2171,292 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF356854"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF356854"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
-          <xfpb:DXFComplement i="0"/>
-        </ext>
-      </extLst>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF356854"/>
-          <bgColor rgb="FF356854"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1">
-    <tableStyle name="頻出語句一覧-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2407,92 +2468,151 @@
 </styleSheet>
 </file>
 
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-  <bag type="DXFComplements" extRef="DXFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="頻出単語一覧" displayName="頻出単語一覧" ref="A1:E201" headerRowDxfId="1">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="単語"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="読み方"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="単語の意味"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="暗記チェック" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="頻出語句一覧-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2554,13 +2674,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2569,6 +2682,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2633,4272 +2753,2862 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4DEECC-7E49-49FD-93F1-4F22419F32E4}">
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A202" sqref="A202:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="16383" width="12.6640625" hidden="1"/>
-    <col min="16384" max="16384" width="12.6640625" hidden="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="E2" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>117</v>
       </c>
-      <c r="E39" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>152</v>
       </c>
-      <c r="E51" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s">
         <v>155</v>
       </c>
-      <c r="E52" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>158</v>
       </c>
-      <c r="E53" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>161</v>
       </c>
-      <c r="E54" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>170</v>
       </c>
-      <c r="E57" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>178</v>
       </c>
-      <c r="E60" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>187</v>
       </c>
-      <c r="E63" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>190</v>
       </c>
-      <c r="E64" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>193</v>
       </c>
-      <c r="E65" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>198</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>202</v>
       </c>
-      <c r="E68" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>204</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>205</v>
       </c>
-      <c r="E69" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>154</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>214</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>223</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" t="s">
         <v>228</v>
       </c>
-      <c r="E77" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" t="s">
         <v>231</v>
       </c>
-      <c r="E78" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" t="s">
         <v>234</v>
       </c>
-      <c r="E79" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" t="s">
         <v>237</v>
       </c>
-      <c r="E80" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>238</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>239</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>240</v>
       </c>
-      <c r="E81" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>242</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s">
         <v>243</v>
       </c>
-      <c r="E82" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" t="s">
         <v>246</v>
       </c>
-      <c r="E83" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>247</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>249</v>
       </c>
-      <c r="E84" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>250</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" t="s">
         <v>252</v>
       </c>
-      <c r="E85" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s">
         <v>254</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" t="s">
         <v>255</v>
       </c>
-      <c r="E86" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>256</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>257</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" t="s">
         <v>258</v>
       </c>
-      <c r="E87" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" t="s">
         <v>261</v>
       </c>
-      <c r="E88" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>263</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" t="s">
         <v>264</v>
       </c>
-      <c r="E89" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>265</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s">
         <v>266</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s">
         <v>267</v>
       </c>
-      <c r="E90" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" t="s">
         <v>270</v>
       </c>
-      <c r="E91" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>273</v>
       </c>
-      <c r="E92" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" t="s">
         <v>276</v>
       </c>
-      <c r="E93" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" t="s">
         <v>279</v>
       </c>
-      <c r="E94" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" t="s">
         <v>282</v>
       </c>
-      <c r="E95" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>284</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s">
         <v>285</v>
       </c>
-      <c r="E96" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="s">
         <v>286</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" t="s">
         <v>288</v>
       </c>
-      <c r="E97" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>289</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>290</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" t="s">
         <v>291</v>
       </c>
-      <c r="E98" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" t="s">
         <v>294</v>
       </c>
-      <c r="E99" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>295</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" t="s">
         <v>297</v>
       </c>
-      <c r="E100" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" t="s">
         <v>299</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" t="s">
         <v>300</v>
       </c>
-      <c r="E101" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="1">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>301</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" t="s">
         <v>302</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
         <v>303</v>
       </c>
-      <c r="E102" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="3">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>305</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" t="s">
         <v>306</v>
       </c>
-      <c r="E103" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="1">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>307</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" t="s">
         <v>308</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" t="s">
         <v>309</v>
       </c>
-      <c r="E104" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" t="s">
         <v>310</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" t="s">
         <v>311</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" t="s">
         <v>312</v>
       </c>
-      <c r="E105" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="1">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>313</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" t="s">
         <v>314</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" t="s">
         <v>315</v>
       </c>
-      <c r="E106" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" t="s">
         <v>317</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" t="s">
         <v>318</v>
       </c>
-      <c r="E107" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="1">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" t="s">
         <v>320</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" t="s">
         <v>321</v>
       </c>
-      <c r="E108" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" t="s">
         <v>323</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" t="s">
         <v>324</v>
       </c>
-      <c r="E109" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="1">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>325</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" t="s">
         <v>326</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" t="s">
         <v>327</v>
       </c>
-      <c r="E110" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" t="s">
         <v>330</v>
       </c>
-      <c r="E111" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>331</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" t="s">
         <v>332</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" t="s">
         <v>333</v>
       </c>
-      <c r="E112" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" t="s">
         <v>336</v>
       </c>
-      <c r="E113" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" t="s">
         <v>339</v>
       </c>
-      <c r="E114" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" t="s">
         <v>341</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" t="s">
         <v>342</v>
       </c>
-      <c r="E115" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="1">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" t="s">
         <v>344</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" t="s">
         <v>345</v>
       </c>
-      <c r="E116" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="s">
         <v>346</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" t="s">
         <v>347</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" t="s">
         <v>348</v>
       </c>
-      <c r="E117" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>349</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" t="s">
         <v>350</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" t="s">
         <v>351</v>
       </c>
-      <c r="E118" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" t="s">
         <v>353</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" t="s">
         <v>354</v>
       </c>
-      <c r="E119" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="1">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
         <v>355</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" t="s">
         <v>356</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" t="s">
         <v>357</v>
       </c>
-      <c r="E120" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" t="s">
         <v>358</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" t="s">
         <v>359</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" t="s">
         <v>360</v>
       </c>
-      <c r="E121" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="1">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" t="s">
         <v>362</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" t="s">
         <v>363</v>
       </c>
-      <c r="E122" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" t="s">
         <v>364</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" t="s">
         <v>365</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" t="s">
         <v>366</v>
       </c>
-      <c r="E123" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="1">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>367</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" t="s">
         <v>368</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" t="s">
         <v>369</v>
       </c>
-      <c r="E124" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" t="s">
         <v>371</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" t="s">
         <v>372</v>
       </c>
-      <c r="E125" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="1">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>373</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" t="s">
         <v>374</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" t="s">
         <v>375</v>
       </c>
-      <c r="E126" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" t="s">
         <v>376</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" t="s">
         <v>377</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" t="s">
         <v>378</v>
       </c>
-      <c r="E127" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="1">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" t="s">
         <v>379</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" t="s">
         <v>380</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" t="s">
         <v>381</v>
       </c>
-      <c r="E128" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="3">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" t="s">
         <v>382</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" t="s">
         <v>383</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" t="s">
         <v>384</v>
       </c>
-      <c r="E129" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="1">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
         <v>385</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" t="s">
         <v>386</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" t="s">
         <v>387</v>
       </c>
-      <c r="E130" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A131" s="3">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" t="s">
         <v>389</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" t="s">
         <v>390</v>
       </c>
-      <c r="E131" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="1">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" t="s">
         <v>392</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" t="s">
         <v>393</v>
       </c>
-      <c r="E132" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" s="3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" t="s">
         <v>394</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" t="s">
         <v>395</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" t="s">
         <v>396</v>
       </c>
-      <c r="E133" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A134" s="1">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" t="s">
         <v>398</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" t="s">
         <v>399</v>
       </c>
-      <c r="E134" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" t="s">
         <v>400</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" t="s">
         <v>401</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" t="s">
         <v>402</v>
       </c>
-      <c r="E135" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="1">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
         <v>403</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" t="s">
         <v>404</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" t="s">
         <v>405</v>
       </c>
-      <c r="E136" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="3">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" t="s">
         <v>406</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" t="s">
         <v>407</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" t="s">
         <v>408</v>
       </c>
-      <c r="E137" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="1">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" t="s">
         <v>410</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" t="s">
         <v>411</v>
       </c>
-      <c r="E138" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="3">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" t="s">
         <v>412</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" t="s">
         <v>413</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" t="s">
         <v>414</v>
       </c>
-      <c r="E139" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="1">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>415</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" t="s">
         <v>416</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" t="s">
         <v>417</v>
       </c>
-      <c r="E140" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="3">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" t="s">
         <v>418</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" t="s">
         <v>419</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" t="s">
         <v>420</v>
       </c>
-      <c r="E141" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="1">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" t="s">
         <v>421</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" t="s">
         <v>422</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" t="s">
         <v>423</v>
       </c>
-      <c r="E142" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="3">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" t="s">
         <v>424</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" t="s">
         <v>425</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" t="s">
         <v>426</v>
       </c>
-      <c r="E143" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="1">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" t="s">
         <v>428</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" t="s">
         <v>429</v>
       </c>
-      <c r="E144" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="3">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" t="s">
         <v>430</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" t="s">
         <v>431</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" t="s">
         <v>432</v>
       </c>
-      <c r="E145" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="1">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s">
         <v>433</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" t="s">
         <v>434</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" t="s">
         <v>435</v>
       </c>
-      <c r="E146" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="3">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" t="s">
         <v>436</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" t="s">
         <v>437</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" t="s">
         <v>438</v>
       </c>
-      <c r="E147" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="1">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>439</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" t="s">
         <v>440</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" t="s">
         <v>441</v>
       </c>
-      <c r="E148" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="3">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" t="s">
         <v>442</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" t="s">
         <v>443</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" t="s">
         <v>444</v>
       </c>
-      <c r="E149" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="1">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>445</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" t="s">
         <v>446</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" t="s">
         <v>447</v>
       </c>
-      <c r="E150" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="3">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" t="s">
         <v>448</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" t="s">
         <v>449</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" t="s">
         <v>450</v>
       </c>
-      <c r="E151" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="1">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
         <v>451</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" t="s">
         <v>452</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" t="s">
         <v>453</v>
       </c>
-      <c r="E152" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="3">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" t="s">
         <v>454</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" t="s">
         <v>455</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" t="s">
         <v>456</v>
       </c>
-      <c r="E153" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="1">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>457</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" t="s">
         <v>458</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" t="s">
         <v>459</v>
       </c>
-      <c r="E154" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="3">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" t="s">
         <v>460</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" t="s">
         <v>461</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" t="s">
         <v>462</v>
       </c>
-      <c r="E155" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="1">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s">
         <v>463</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" t="s">
         <v>464</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" t="s">
         <v>465</v>
       </c>
-      <c r="E156" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" s="3">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" t="s">
         <v>466</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" t="s">
         <v>467</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" t="s">
         <v>468</v>
       </c>
-      <c r="E157" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A158" s="1">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" t="s">
         <v>469</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" t="s">
         <v>470</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" t="s">
         <v>471</v>
       </c>
-      <c r="E158" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A159" s="3">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" t="s">
         <v>472</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" t="s">
         <v>473</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" t="s">
         <v>474</v>
       </c>
-      <c r="E159" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A160" s="1">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s">
         <v>475</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" t="s">
         <v>476</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" t="s">
         <v>477</v>
       </c>
-      <c r="E160" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A161" s="3">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" t="s">
         <v>478</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" t="s">
         <v>401</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" t="s">
         <v>479</v>
       </c>
-      <c r="E161" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A162" s="1">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>480</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" t="s">
         <v>481</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" t="s">
         <v>482</v>
       </c>
-      <c r="E162" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A163" s="3">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" t="s">
         <v>483</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" t="s">
         <v>484</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" t="s">
         <v>485</v>
       </c>
-      <c r="E163" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A164" s="1">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s">
         <v>486</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" t="s">
         <v>487</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" t="s">
         <v>488</v>
       </c>
-      <c r="E164" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A165" s="3">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" t="s">
         <v>489</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" t="s">
         <v>490</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" t="s">
         <v>491</v>
       </c>
-      <c r="E165" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A166" s="1">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
         <v>492</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" t="s">
         <v>493</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" t="s">
         <v>494</v>
       </c>
-      <c r="E166" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A167" s="3">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" t="s">
         <v>495</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" t="s">
         <v>496</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" t="s">
         <v>497</v>
       </c>
-      <c r="E167" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A168" s="1">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
         <v>498</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" t="s">
         <v>499</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" t="s">
         <v>500</v>
       </c>
-      <c r="E168" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A169" s="3">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" t="s">
         <v>501</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" t="s">
         <v>502</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" t="s">
         <v>503</v>
       </c>
-      <c r="E169" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A170" s="1">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
         <v>504</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" t="s">
         <v>505</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" t="s">
         <v>506</v>
       </c>
-      <c r="E170" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A171" s="3">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" t="s">
         <v>507</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" t="s">
         <v>508</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" t="s">
         <v>509</v>
       </c>
-      <c r="E171" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="1">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s">
         <v>510</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" t="s">
         <v>511</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" t="s">
         <v>512</v>
       </c>
-      <c r="E172" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A173" s="3">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" t="s">
         <v>513</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" t="s">
         <v>514</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" t="s">
         <v>515</v>
       </c>
-      <c r="E173" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A174" s="1">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" t="s">
         <v>516</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" t="s">
         <v>517</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" t="s">
         <v>518</v>
       </c>
-      <c r="E174" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="3">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" t="s">
         <v>519</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" t="s">
         <v>520</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" t="s">
         <v>521</v>
       </c>
-      <c r="E175" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A176" s="1">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" t="s">
         <v>522</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" t="s">
         <v>523</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" t="s">
         <v>524</v>
       </c>
-      <c r="E176" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A177" s="3">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" t="s">
         <v>525</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" t="s">
         <v>526</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" t="s">
         <v>527</v>
       </c>
-      <c r="E177" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A178" s="1">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s">
         <v>528</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" t="s">
         <v>529</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" t="s">
         <v>530</v>
       </c>
-      <c r="E178" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A179" s="3">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" t="s">
         <v>531</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" t="s">
         <v>532</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" t="s">
         <v>533</v>
       </c>
-      <c r="E179" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A180" s="1">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s">
         <v>534</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" t="s">
         <v>535</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" t="s">
         <v>536</v>
       </c>
-      <c r="E180" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A181" s="3">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" t="s">
         <v>537</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" t="s">
         <v>538</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" t="s">
         <v>539</v>
       </c>
-      <c r="E181" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A182" s="1">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
         <v>540</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" t="s">
         <v>541</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" t="s">
         <v>542</v>
       </c>
-      <c r="E182" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A183" s="3">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" t="s">
         <v>543</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" t="s">
         <v>544</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D183" t="s">
         <v>545</v>
       </c>
-      <c r="E183" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="1">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s">
         <v>546</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" t="s">
         <v>547</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" t="s">
         <v>548</v>
       </c>
-      <c r="E184" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A185" s="3">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" t="s">
         <v>549</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" t="s">
         <v>550</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D185" t="s">
         <v>551</v>
       </c>
-      <c r="E185" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A186" s="1">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s">
         <v>552</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" t="s">
         <v>553</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" t="s">
         <v>554</v>
       </c>
-      <c r="E186" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="3">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" t="s">
         <v>555</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" t="s">
         <v>556</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" t="s">
         <v>557</v>
       </c>
-      <c r="E187" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A188" s="1">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" t="s">
         <v>558</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" t="s">
         <v>559</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" t="s">
         <v>560</v>
       </c>
-      <c r="E188" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" s="3">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" t="s">
         <v>561</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" t="s">
         <v>562</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" t="s">
         <v>563</v>
       </c>
-      <c r="E189" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A190" s="1">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
         <v>564</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" t="s">
         <v>413</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" t="s">
         <v>414</v>
       </c>
-      <c r="E190" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A191" s="3">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" t="s">
         <v>565</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" t="s">
         <v>566</v>
       </c>
-      <c r="D191" s="4" t="s">
+      <c r="D191" t="s">
         <v>567</v>
       </c>
-      <c r="E191" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A192" s="1">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
         <v>568</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" t="s">
         <v>569</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" t="s">
         <v>570</v>
       </c>
-      <c r="E192" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A193" s="3">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" t="s">
         <v>571</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" t="s">
         <v>572</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D193" t="s">
         <v>573</v>
       </c>
-      <c r="E193" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A194" s="1">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
         <v>574</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" t="s">
         <v>575</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" t="s">
         <v>576</v>
       </c>
-      <c r="E194" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A195" s="3">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" t="s">
         <v>577</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" t="s">
         <v>578</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" t="s">
         <v>579</v>
       </c>
-      <c r="E195" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A196" s="1">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
         <v>580</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" t="s">
         <v>581</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" t="s">
         <v>582</v>
       </c>
-      <c r="E196" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A197" s="3">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" t="s">
         <v>583</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" t="s">
         <v>584</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" t="s">
         <v>585</v>
       </c>
-      <c r="E197" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A198" s="1">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" t="s">
         <v>586</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" t="s">
         <v>587</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" t="s">
         <v>588</v>
       </c>
-      <c r="E198" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A199" s="3">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" t="s">
         <v>589</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" t="s">
         <v>590</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" t="s">
         <v>591</v>
       </c>
-      <c r="E199" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A200" s="1">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
         <v>592</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" t="s">
         <v>593</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" t="s">
         <v>594</v>
       </c>
-      <c r="E200" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A201" s="5">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" t="s">
         <v>595</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" t="s">
         <v>596</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" t="s">
         <v>597</v>
       </c>
-      <c r="E201" s="12" t="b">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B2:C201">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E2=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A201" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>